--- a/reports/Отчет 8-14.07.xlsx
+++ b/reports/Отчет 8-14.07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Дата</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Изменение Garopt, перезалив</t>
+  </si>
+  <si>
+    <t>Garopt: изменение названия, проставление категорий, работа с файлом</t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -757,10 +760,10 @@
         <v>0.75</v>
       </c>
       <c r="C5" s="4">
-        <v>0.79166666666666663</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>9</v>
@@ -770,10 +773,18 @@
       <c r="A6" s="5">
         <v>45483</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
@@ -857,7 +868,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <f>SUM(D2:D15)</f>
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1"/>
     </row>

--- a/reports/Отчет 8-14.07.xlsx
+++ b/reports/Отчет 8-14.07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Дата</t>
   </si>
@@ -34,12 +34,6 @@
     <t>Конец</t>
   </si>
   <si>
-    <t>Алгоритм парсинга WiederKraft: описание</t>
-  </si>
-  <si>
-    <t>Алгоритм парсинга WiederKraft: изображения</t>
-  </si>
-  <si>
     <t>Интеграция нового яндекс диска, добавление выгрузки garopt на него</t>
   </si>
   <si>
@@ -47,6 +41,21 @@
   </si>
   <si>
     <t>Garopt: изменение названия, проставление категорий, работа с файлом</t>
+  </si>
+  <si>
+    <t>завершения парсинга https://wiederkraft.ru/shop/</t>
+  </si>
+  <si>
+    <t>Изменение и правка названий вручную</t>
+  </si>
+  <si>
+    <t>Изменение и правка названий вручную (дверцы)</t>
+  </si>
+  <si>
+    <t>Изучение структуры сайта https://wiederkraft.ru/shop/, алгоритм парсинга WiederKraft: артикулы,цены, названия, категории</t>
+  </si>
+  <si>
+    <t>Алгоритм парсинга WiederKraft:  описание, изображения. Сам парсинг и интеграция в основного бота</t>
   </si>
 </sst>
 </file>
@@ -676,7 +685,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,7 +728,7 @@
         <v>2.5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -736,7 +745,7 @@
         <v>1.5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -751,7 +760,7 @@
         <v>1.5</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -766,7 +775,7 @@
         <v>1.25</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -783,7 +792,7 @@
         <v>3.25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -799,28 +808,52 @@
       <c r="A8" s="5">
         <v>45485</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.9375</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>45486</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>45487</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -868,7 +901,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <f>SUM(D2:D15)</f>
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="E17" s="1"/>
     </row>
